--- a/data/trans_orig/P14A31-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A31-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DA863F8-D6BB-48D7-A2E9-EBE6B3BC69C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA7C11A1-1988-4F56-9B39-1B1AC5B5FEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7951F072-4F34-4D04-A70D-6249B407D908}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14876967-DD9B-4102-AA27-64C1242B3D74}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -93,13 +93,13 @@
     <t>86,26%</t>
   </si>
   <si>
-    <t>43,1%</t>
+    <t>43,46%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>67,62%</t>
+    <t>71,87%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -114,13 +114,13 @@
     <t>13,74%</t>
   </si>
   <si>
-    <t>56,9%</t>
+    <t>56,54%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>32,38%</t>
+    <t>28,13%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -135,7 +135,7 @@
     <t>81,48%</t>
   </si>
   <si>
-    <t>25,53%</t>
+    <t>21,69%</t>
   </si>
   <si>
     <t>31,45%</t>
@@ -147,7 +147,7 @@
     <t>18,52%</t>
   </si>
   <si>
-    <t>74,47%</t>
+    <t>78,31%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -156,49 +156,49 @@
     <t>89,17%</t>
   </si>
   <si>
-    <t>51,58%</t>
+    <t>44,37%</t>
   </si>
   <si>
     <t>61,58%</t>
   </si>
   <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>71,62%</t>
   </si>
   <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>48,42%</t>
+    <t>55,63%</t>
   </si>
   <si>
     <t>38,42%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -210,16 +210,16 @@
     <t>21,41%</t>
   </si>
   <si>
-    <t>60,9%</t>
+    <t>61,06%</t>
   </si>
   <si>
     <t>26,32%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
   </si>
   <si>
     <t>53,05%</t>
@@ -228,16 +228,16 @@
     <t>78,59%</t>
   </si>
   <si>
-    <t>39,1%</t>
+    <t>38,94%</t>
   </si>
   <si>
     <t>73,68%</t>
   </si>
   <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -273,25 +273,25 @@
     <t>72,46%</t>
   </si>
   <si>
-    <t>31,08%</t>
+    <t>31,3%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>48,64%</t>
+    <t>49,41%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>68,92%</t>
+    <t>68,7%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>51,36%</t>
+    <t>50,59%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -300,91 +300,91 @@
     <t>75,58%</t>
   </si>
   <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>24,42%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>74,44%</t>
   </si>
   <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>25,56%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -402,13 +402,13 @@
     <t>83,18%</t>
   </si>
   <si>
-    <t>33,68%</t>
+    <t>43,36%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>45,29%</t>
+    <t>50,05%</t>
   </si>
   <si>
     <t>20,92%</t>
@@ -420,13 +420,13 @@
     <t>16,82%</t>
   </si>
   <si>
-    <t>66,32%</t>
+    <t>56,64%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>54,71%</t>
+    <t>49,95%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -441,7 +441,7 @@
     <t>91,19%</t>
   </si>
   <si>
-    <t>56,71%</t>
+    <t>62,95%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -456,7 +456,7 @@
     <t>8,81%</t>
   </si>
   <si>
-    <t>43,29%</t>
+    <t>37,05%</t>
   </si>
   <si>
     <t>65,36%</t>
@@ -480,7 +480,7 @@
     <t>81,17%</t>
   </si>
   <si>
-    <t>34,18%</t>
+    <t>33,25%</t>
   </si>
   <si>
     <t>49,27%</t>
@@ -495,16 +495,16 @@
     <t>65,43%</t>
   </si>
   <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>18,83%</t>
   </si>
   <si>
-    <t>65,82%</t>
+    <t>66,75%</t>
   </si>
   <si>
     <t>50,73%</t>
@@ -519,10 +519,10 @@
     <t>34,57%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
   </si>
   <si>
     <t>55,53%</t>
@@ -531,7 +531,7 @@
     <t>75,34%</t>
   </si>
   <si>
-    <t>37,0%</t>
+    <t>35,65%</t>
   </si>
   <si>
     <t>44,47%</t>
@@ -540,7 +540,7 @@
     <t>24,66%</t>
   </si>
   <si>
-    <t>63,0%</t>
+    <t>64,35%</t>
   </si>
   <si>
     <t>75,67%</t>
@@ -552,13 +552,13 @@
     <t>91,03%</t>
   </si>
   <si>
-    <t>52,77%</t>
+    <t>62,38%</t>
   </si>
   <si>
     <t>87,11%</t>
   </si>
   <si>
-    <t>59,88%</t>
+    <t>59,54%</t>
   </si>
   <si>
     <t>24,33%</t>
@@ -570,13 +570,13 @@
     <t>8,97%</t>
   </si>
   <si>
-    <t>47,23%</t>
+    <t>37,62%</t>
   </si>
   <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>40,12%</t>
+    <t>40,46%</t>
   </si>
   <si>
     <t>38,88%</t>
@@ -624,109 +624,109 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>53,1%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
   </si>
   <si>
     <t>61,09%</t>
   </si>
   <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>29,02%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
   </si>
   <si>
     <t>46,9%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>38,91%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>73,38%</t>
   </si>
   <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314BEA03-9812-4113-8023-18EFCE9E23CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416D8324-8914-49B1-B031-B322FC60522D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2651,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02038D4F-06C1-4AAD-BC32-F9058BEB85D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2CDA24-D73C-4313-BCA3-C320B430F980}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A31-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A31-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA7C11A1-1988-4F56-9B39-1B1AC5B5FEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5147ED4-E8F2-440B-AA09-7366DBDEC5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14876967-DD9B-4102-AA27-64C1242B3D74}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C741262D-B332-4BDE-BFFA-5233FC86A214}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,13 +93,13 @@
     <t>86,26%</t>
   </si>
   <si>
-    <t>43,46%</t>
+    <t>42,96%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>71,87%</t>
+    <t>70,17%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -114,13 +114,13 @@
     <t>13,74%</t>
   </si>
   <si>
-    <t>56,54%</t>
+    <t>57,04%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>28,13%</t>
+    <t>29,83%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -156,49 +156,49 @@
     <t>89,17%</t>
   </si>
   <si>
-    <t>44,37%</t>
+    <t>52,94%</t>
   </si>
   <si>
     <t>61,58%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>71,62%</t>
   </si>
   <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>55,63%</t>
+    <t>47,06%</t>
   </si>
   <si>
     <t>38,42%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -210,16 +210,16 @@
     <t>21,41%</t>
   </si>
   <si>
-    <t>61,06%</t>
+    <t>60,91%</t>
   </si>
   <si>
     <t>26,32%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
   </si>
   <si>
     <t>53,05%</t>
@@ -228,16 +228,16 @@
     <t>78,59%</t>
   </si>
   <si>
-    <t>38,94%</t>
+    <t>39,09%</t>
   </si>
   <si>
     <t>73,68%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -252,7 +252,7 @@
     <t>72,67%</t>
   </si>
   <si>
-    <t>29,47%</t>
+    <t>29,48%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -264,7 +264,7 @@
     <t>27,33%</t>
   </si>
   <si>
-    <t>70,53%</t>
+    <t>70,52%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -273,25 +273,25 @@
     <t>72,46%</t>
   </si>
   <si>
-    <t>31,3%</t>
+    <t>17,69%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>49,41%</t>
+    <t>48,91%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>68,7%</t>
+    <t>82,31%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>50,59%</t>
+    <t>51,09%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -300,7 +300,7 @@
     <t>75,58%</t>
   </si>
   <si>
-    <t>42,67%</t>
+    <t>49,92%</t>
   </si>
   <si>
     <t>92,28%</t>
@@ -309,10 +309,7 @@
     <t>84,64%</t>
   </si>
   <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>63,65%</t>
   </si>
   <si>
     <t>24,42%</t>
@@ -321,412 +318,415 @@
     <t>7,72%</t>
   </si>
   <si>
-    <t>57,33%</t>
+    <t>50,08%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>36,35%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
   </si>
   <si>
     <t>74,44%</t>
   </si>
   <si>
-    <t>65,1%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por enfermedad de riñón en 2016 (Tasa respuesta: 1,46%)</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>83,44%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por enfermedad de riñón en 2015 (Tasa respuesta: 1,46%)</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>43,94%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416D8324-8914-49B1-B031-B322FC60522D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450208F0-A13C-40C8-AC5B-6832D1039B0F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2365,7 +2365,7 @@
         <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2395,13 @@
         <v>3126</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2410,13 +2410,13 @@
         <v>3126</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2484,13 @@
         <v>34909</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -2499,13 +2499,13 @@
         <v>34260</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -2514,13 +2514,13 @@
         <v>69169</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2535,13 @@
         <v>5007</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -2550,13 +2550,13 @@
         <v>18742</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -2565,13 +2565,13 @@
         <v>23749</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,7 +2627,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2CDA24-D73C-4313-BCA3-C320B430F980}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9FF217-95B7-44B8-8399-ABE67D530543}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2668,7 +2668,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2775,10 +2775,10 @@
         <v>3748</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -2790,10 +2790,10 @@
         <v>5195</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -2805,10 +2805,10 @@
         <v>8943</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -2826,13 +2826,13 @@
         <v>992</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2841,13 +2841,13 @@
         <v>1050</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2856,13 +2856,13 @@
         <v>2042</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,7 +2933,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -2945,10 +2945,10 @@
         <v>4282</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -2960,10 +2960,10 @@
         <v>10696</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -2987,7 +2987,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2996,13 +2996,13 @@
         <v>1033</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3011,13 +3011,13 @@
         <v>1033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
         <v>1763</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
@@ -3115,10 +3115,10 @@
         <v>4066</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -3136,7 +3136,7 @@
         <v>935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
@@ -3166,13 +3166,13 @@
         <v>935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,10 +3240,10 @@
         <v>5706</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -3255,13 +3255,13 @@
         <v>3374</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3270,13 +3270,13 @@
         <v>9080</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3291,13 @@
         <v>1324</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3306,13 +3306,13 @@
         <v>3474</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3321,13 +3321,13 @@
         <v>4798</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,10 +3395,10 @@
         <v>3085</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -3425,10 +3425,10 @@
         <v>7551</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -3446,13 +3446,13 @@
         <v>2471</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
